--- a/华夏基金工作日志/工作文件/行情中心数据整理.xlsx
+++ b/华夏基金工作日志/工作文件/行情中心数据整理.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="19770" windowHeight="8370"/>
   </bookViews>
   <sheets>
-    <sheet name="证券信息" sheetId="1" r:id="rId1"/>
+    <sheet name="上交所证券信息导入" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,24 +16,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151">
   <si>
     <t>公共字段</t>
   </si>
   <si>
-    <t>编号</t>
-  </si>
-  <si>
     <t>字段名称</t>
   </si>
   <si>
     <t>字段英文名</t>
   </si>
   <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t>说明</t>
+    <t>深交所证券</t>
+  </si>
+  <si>
+    <t>上交所债券</t>
   </si>
   <si>
     <t>证券代码</t>
@@ -42,7 +39,19 @@
     <t>symbol</t>
   </si>
   <si>
-    <t>String</t>
+    <t>securities_yyyyMMdd.xml/indexinfo_yyyyMMdd.xml/issueparams_yyyyMMdd.xml/rightsissueparams_yyyyMMdd.xml/NEW_STOCK_yyyyMMdd.csv</t>
+  </si>
+  <si>
+    <t>cpxxMMDD.txt/fjyYYYYMMDD.txt/mktdt00.txt/reff03</t>
+  </si>
+  <si>
+    <t>中文简称</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>cpxxMMDD.txt/fjyYYYYMMDD.txt/mktdt00.txt</t>
   </si>
   <si>
     <t>上市交易所Code</t>
@@ -51,12 +60,21 @@
     <t>exchange</t>
   </si>
   <si>
+    <t>XSHG</t>
+  </si>
+  <si>
     <t>证券类型</t>
   </si>
   <si>
     <t>type</t>
   </si>
   <si>
+    <t>securities_yyyyMMdd.xml/INDEX_INFO/NEW_STOCK/RATION_STOCK</t>
+  </si>
+  <si>
+    <t>fjyYYYYMMDD.txt/mktdt00.txt/INDEX_INFO</t>
+  </si>
+  <si>
     <t>证券子类型</t>
   </si>
   <si>
@@ -69,7 +87,10 @@
     <t>lotSize</t>
   </si>
   <si>
-    <t>double</t>
+    <t>cashauctionparams_yyyyMMdd.xml</t>
+  </si>
+  <si>
+    <t>cpxxMMDD.txt</t>
   </si>
   <si>
     <t>买限价最小交易单位</t>
@@ -102,6 +123,12 @@
     <t>maxLimitTradeQty</t>
   </si>
   <si>
+    <t>cashauctionparams_yyyyMMdd.xml/issueparams_yyyyMMdd.xml</t>
+  </si>
+  <si>
+    <t>cpxxMMDD.txt/fjyYYYYMMDD.txt</t>
+  </si>
+  <si>
     <t>市价最大交易数量</t>
   </si>
   <si>
@@ -120,19 +147,328 @@
     <t>isFirstDayTrading</t>
   </si>
   <si>
-    <t>中文简称</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>当天停牌标识</t>
   </si>
   <si>
     <t>suspensionFlag</t>
   </si>
   <si>
-    <t>boolean</t>
+    <t>securities_yyyyMMdd.xml/true</t>
+  </si>
+  <si>
+    <t>债券特有字段</t>
+  </si>
+  <si>
+    <t>上交所证券</t>
+  </si>
+  <si>
+    <t>应计利息</t>
+  </si>
+  <si>
+    <t>accruedInterest</t>
+  </si>
+  <si>
+    <t>securities_yyyyMMdd.xml</t>
+  </si>
+  <si>
+    <t>gzlx.MMDD</t>
+  </si>
+  <si>
+    <t>折算率</t>
+  </si>
+  <si>
+    <t>conversionRate</t>
+  </si>
+  <si>
+    <t>xzslMDD.txt</t>
+  </si>
+  <si>
+    <t>每股面额</t>
+  </si>
+  <si>
+    <t>shareFaceValue</t>
+  </si>
+  <si>
+    <t>涨停价</t>
+  </si>
+  <si>
+    <t>limitUp</t>
+  </si>
+  <si>
+    <t>issueparams_yyyyMMdd.xml/rightsissueparams_yyyyMMdd.xml</t>
+  </si>
+  <si>
+    <t>跌停价</t>
+  </si>
+  <si>
+    <t>limitDown</t>
+  </si>
+  <si>
+    <t>上市日期</t>
+  </si>
+  <si>
+    <t>issueDate</t>
+  </si>
+  <si>
+    <t>securities_yyyyMMdd.xml/NEW_STOCK_yyyyMMdd.csv</t>
+  </si>
+  <si>
+    <t>股票特有字段</t>
+  </si>
+  <si>
+    <t>总股本</t>
+  </si>
+  <si>
+    <t>issedShares</t>
+  </si>
+  <si>
+    <t>securities_yyyyMMdd.xml/issueparams_yyyyMMdd.xml</t>
+  </si>
+  <si>
+    <t>fjyYYYYMMDD.txt</t>
+  </si>
+  <si>
+    <t>流通股本</t>
+  </si>
+  <si>
+    <t>outstandingShares</t>
+  </si>
+  <si>
+    <t>新股对象(NewStockSecurityData)</t>
+  </si>
+  <si>
+    <t>新股正股代码</t>
+  </si>
+  <si>
+    <t>actualSymbol</t>
+  </si>
+  <si>
+    <t>网上申购价格</t>
+  </si>
+  <si>
+    <t>purchasePrice</t>
+  </si>
+  <si>
+    <t>issueparams_yyyyMMdd.xml</t>
+  </si>
+  <si>
+    <t>网下申购价格上限</t>
+  </si>
+  <si>
+    <t>maxLimitOfflineBuyPrice</t>
+  </si>
+  <si>
+    <t>NEW_STOCK_yyyyMMdd.csv</t>
+  </si>
+  <si>
+    <t>网下申购价格下限</t>
+  </si>
+  <si>
+    <t>minLimitOfflineBuyPrice</t>
+  </si>
+  <si>
+    <t>个人网上申购上限</t>
+  </si>
+  <si>
+    <t>maxLimitOrganiationBuy</t>
+  </si>
+  <si>
+    <t>机构网上申购上限</t>
+  </si>
+  <si>
+    <t>申购日期</t>
+  </si>
+  <si>
+    <t>purchaseDate</t>
+  </si>
+  <si>
+    <t>中签日期</t>
+  </si>
+  <si>
+    <t>allotmentDate</t>
+  </si>
+  <si>
+    <t>缴款日期</t>
+  </si>
+  <si>
+    <t>paymentDate</t>
+  </si>
+  <si>
+    <t>配股配债对象(RationStockData)</t>
+  </si>
+  <si>
+    <t>申购价格</t>
+  </si>
+  <si>
+    <t>rightsissueparams_yyyyMMdd.xml</t>
+  </si>
+  <si>
+    <t>申购开始日期</t>
+  </si>
+  <si>
+    <t>starDate</t>
+  </si>
+  <si>
+    <t>申购结束日期</t>
+  </si>
+  <si>
+    <t>endDate</t>
+  </si>
+  <si>
+    <t>债券对象(BondSecurityData)</t>
+  </si>
+  <si>
+    <t>发行日期</t>
+  </si>
+  <si>
+    <t>ZQXX_yyyyMMdd.xls</t>
+  </si>
+  <si>
+    <t>publishDate</t>
+  </si>
+  <si>
+    <t>年利率</t>
+  </si>
+  <si>
+    <t>couponRate</t>
+  </si>
+  <si>
+    <t>债券气息日期</t>
+  </si>
+  <si>
+    <t>interestAccrualDate</t>
+  </si>
+  <si>
+    <t>到期/交割日/结束日期</t>
+  </si>
+  <si>
+    <t>付息间隔</t>
+  </si>
+  <si>
+    <t>accrualInterval</t>
+  </si>
+  <si>
+    <t>付息类型</t>
+  </si>
+  <si>
+    <t>accrualType</t>
+  </si>
+  <si>
+    <t>期限</t>
+  </si>
+  <si>
+    <t>deadLine</t>
+  </si>
+  <si>
+    <t>发行价</t>
+  </si>
+  <si>
+    <t>issuePrice</t>
+  </si>
+  <si>
+    <t>计息天数</t>
+  </si>
+  <si>
+    <t>accrualInterestDays</t>
+  </si>
+  <si>
+    <t>利率类型</t>
+  </si>
+  <si>
+    <t>interestRateType</t>
+  </si>
+  <si>
+    <t>是否净价</t>
+  </si>
+  <si>
+    <t>isNetPrice</t>
+  </si>
+  <si>
+    <t>托管机构</t>
+  </si>
+  <si>
+    <t>trustee</t>
+  </si>
+  <si>
+    <t>交易截止日期</t>
+  </si>
+  <si>
+    <t>tradeEndDate</t>
+  </si>
+  <si>
+    <t>发行人</t>
+  </si>
+  <si>
+    <t>issuer</t>
+  </si>
+  <si>
+    <t>发行人编号</t>
+  </si>
+  <si>
+    <t>issuerNo</t>
+  </si>
+  <si>
+    <t>证券关联市场</t>
+  </si>
+  <si>
+    <t>relationExchange</t>
+  </si>
+  <si>
+    <t>证券关联代码</t>
+  </si>
+  <si>
+    <t>relationSymbol</t>
+  </si>
+  <si>
+    <t>当前面额</t>
+  </si>
+  <si>
+    <t>currentDenomination</t>
+  </si>
+  <si>
+    <t>交售方式</t>
+  </si>
+  <si>
+    <t>deliveryMethod</t>
+  </si>
+  <si>
+    <t>期货特有字段</t>
+  </si>
+  <si>
+    <t>产品代码</t>
+  </si>
+  <si>
+    <t>produvt</t>
+  </si>
+  <si>
+    <t>合约乘数</t>
+  </si>
+  <si>
+    <t>contractMultiplier</t>
+  </si>
+  <si>
+    <t>最后交较割日</t>
+  </si>
+  <si>
+    <t>lastCloseDay</t>
+  </si>
+  <si>
+    <t>其他字段</t>
+  </si>
+  <si>
+    <t>深交所</t>
+  </si>
+  <si>
+    <t>基金净值</t>
+  </si>
+  <si>
+    <t>preNav</t>
+  </si>
+  <si>
+    <t>回购天数</t>
+  </si>
+  <si>
+    <t>expirationDays</t>
   </si>
 </sst>
 </file>
@@ -140,12 +476,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,8 +490,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,15 +552,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,29 +574,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,49 +627,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -320,24 +649,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -350,19 +691,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,79 +775,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,48 +830,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,6 +878,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,191 +955,176 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1137,17 +1475,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:D121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="34.875" customWidth="1"/>
-    <col min="3" max="3" width="24.875" customWidth="1"/>
+    <col min="1" max="1" width="34.875" customWidth="1"/>
+    <col min="2" max="2" width="22.05" customWidth="1"/>
+    <col min="3" max="3" width="68.675" customWidth="1"/>
+    <col min="4" max="4" width="44.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1155,7 +1498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1168,234 +1511,900 @@
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+    </row>
+    <row r="3" ht="27" spans="1:4">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2">
+    </row>
+    <row r="4" ht="27" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2">
+      <c r="C21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2">
+      <c r="D21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3" t="s">
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D46" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D47" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D52" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C73" s="2"/>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C77" s="2"/>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C92" s="2"/>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C93" s="2"/>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C94" s="2"/>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="119" customFormat="1" spans="1:4">
+      <c r="A119" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>147</v>
+      </c>
+      <c r="B120" t="s">
+        <v>148</v>
+      </c>
+      <c r="C120" t="s">
+        <v>50</v>
+      </c>
+      <c r="D120" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="2">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="2">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="2">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="2">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="3"/>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>149</v>
+      </c>
+      <c r="B121" t="s">
+        <v>150</v>
+      </c>
+      <c r="C121" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
